--- a/dataanalysis/data/predictions/1000/08250950_0952.xlsx
+++ b/dataanalysis/data/predictions/1000/08250950_0952.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-25</t>
   </si>
   <si>
@@ -467,12 +470,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -830,13 +827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,19 +936,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.21</v>
@@ -969,7 +969,7 @@
         <v>12609.68</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1010,8 +1010,23 @@
       <c r="W2">
         <v>0.2</v>
       </c>
+      <c r="X2">
+        <v>-1.97</v>
+      </c>
+      <c r="Y2">
+        <v>12.38</v>
+      </c>
+      <c r="Z2">
+        <v>13.79</v>
+      </c>
       <c r="AC2" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1019,22 +1034,25 @@
       <c r="AG2">
         <v>2.051042318344116</v>
       </c>
-      <c r="AH2" t="s">
-        <v>151</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300047</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2.7</v>
@@ -1052,7 +1070,7 @@
         <v>78640.11</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1093,8 +1111,23 @@
       <c r="W3">
         <v>0.26</v>
       </c>
+      <c r="X3">
+        <v>0.77</v>
+      </c>
+      <c r="Y3">
+        <v>21.28</v>
+      </c>
+      <c r="Z3">
+        <v>9.75</v>
+      </c>
       <c r="AC3" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1102,22 +1135,25 @@
       <c r="AG3">
         <v>3.796283483505249</v>
       </c>
-      <c r="AH3" t="s">
-        <v>151</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300049</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.28</v>
@@ -1135,7 +1171,7 @@
         <v>39952.48</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4">
         <v>13</v>
@@ -1176,8 +1212,23 @@
       <c r="W4">
         <v>-0.03</v>
       </c>
+      <c r="X4">
+        <v>-4.07</v>
+      </c>
+      <c r="Y4">
+        <v>63.57</v>
+      </c>
+      <c r="Z4">
+        <v>-1.44</v>
+      </c>
       <c r="AC4" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1185,22 +1236,25 @@
       <c r="AG4">
         <v>2.280305862426758</v>
       </c>
-      <c r="AH4" t="s">
-        <v>151</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>9.119999999999999</v>
@@ -1218,7 +1272,7 @@
         <v>125670.71</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -1259,8 +1313,23 @@
       <c r="W5">
         <v>-1.74</v>
       </c>
+      <c r="X5">
+        <v>-6.14</v>
+      </c>
+      <c r="Y5">
+        <v>8.68</v>
+      </c>
+      <c r="Z5">
+        <v>-5.75</v>
+      </c>
       <c r="AC5" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1268,22 +1337,25 @@
       <c r="AG5">
         <v>1.748744487762451</v>
       </c>
-      <c r="AH5" t="s">
-        <v>151</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300113</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-1.17</v>
@@ -1301,7 +1373,7 @@
         <v>105192.89</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1342,8 +1414,23 @@
       <c r="W6">
         <v>-1.07</v>
       </c>
+      <c r="X6">
+        <v>-0.42</v>
+      </c>
+      <c r="Y6">
+        <v>29.33</v>
+      </c>
+      <c r="Z6">
+        <v>8.949999999999999</v>
+      </c>
       <c r="AC6" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1351,22 +1438,25 @@
       <c r="AG6">
         <v>3.652288675308228</v>
       </c>
-      <c r="AH6" t="s">
-        <v>151</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300153</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-0.7</v>
@@ -1384,7 +1474,7 @@
         <v>59424.12</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1425,8 +1515,23 @@
       <c r="W7">
         <v>0</v>
       </c>
+      <c r="X7">
+        <v>-1.36</v>
+      </c>
+      <c r="Y7">
+        <v>47.17</v>
+      </c>
+      <c r="Z7">
+        <v>0.62</v>
+      </c>
       <c r="AC7" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1434,22 +1539,25 @@
       <c r="AG7">
         <v>-0.5722777843475342</v>
       </c>
-      <c r="AH7" t="s">
-        <v>151</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300184</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-2.81</v>
@@ -1467,7 +1575,7 @@
         <v>101637.24</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1508,8 +1616,23 @@
       <c r="W8">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X8">
+        <v>-2.64</v>
+      </c>
+      <c r="Y8">
+        <v>12.56</v>
+      </c>
+      <c r="Z8">
+        <v>0.96</v>
+      </c>
       <c r="AC8" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1517,22 +1640,25 @@
       <c r="AG8">
         <v>5.669144153594971</v>
       </c>
-      <c r="AH8" t="s">
-        <v>151</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300224</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.98</v>
@@ -1550,7 +1676,7 @@
         <v>70136.72</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K9">
         <v>13</v>
@@ -1591,8 +1717,23 @@
       <c r="W9">
         <v>0.48</v>
       </c>
+      <c r="X9">
+        <v>-5.33</v>
+      </c>
+      <c r="Y9">
+        <v>19.19</v>
+      </c>
+      <c r="Z9">
+        <v>1.11</v>
+      </c>
       <c r="AC9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1600,22 +1741,25 @@
       <c r="AG9">
         <v>0.9766150712966919</v>
       </c>
-      <c r="AH9" t="s">
-        <v>151</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300290</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0.52</v>
@@ -1633,7 +1777,7 @@
         <v>40215.4</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1674,8 +1818,23 @@
       <c r="W10">
         <v>-0.01</v>
       </c>
+      <c r="X10">
+        <v>-3.23</v>
+      </c>
+      <c r="Y10">
+        <v>25.95</v>
+      </c>
+      <c r="Z10">
+        <v>2.98</v>
+      </c>
       <c r="AC10" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1683,22 +1842,25 @@
       <c r="AG10">
         <v>5.481203556060791</v>
       </c>
-      <c r="AH10" t="s">
-        <v>151</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300323</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1.03</v>
@@ -1716,7 +1878,7 @@
         <v>29374.74</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1757,8 +1919,23 @@
       <c r="W11">
         <v>-0.02</v>
       </c>
+      <c r="X11">
+        <v>0.31</v>
+      </c>
+      <c r="Y11">
+        <v>10.07</v>
+      </c>
+      <c r="Z11">
+        <v>2.44</v>
+      </c>
       <c r="AC11" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1766,22 +1943,25 @@
       <c r="AG11">
         <v>4.909389972686768</v>
       </c>
-      <c r="AH11" t="s">
-        <v>151</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300324</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.47</v>
@@ -1799,7 +1979,7 @@
         <v>95719.89999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1840,8 +2020,23 @@
       <c r="W12">
         <v>-0.71</v>
       </c>
+      <c r="X12">
+        <v>-3.87</v>
+      </c>
+      <c r="Y12">
+        <v>6.14</v>
+      </c>
+      <c r="Z12">
+        <v>-3.76</v>
+      </c>
       <c r="AC12" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1849,22 +2044,25 @@
       <c r="AG12">
         <v>3.929539442062378</v>
       </c>
-      <c r="AH12" t="s">
-        <v>151</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300328</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>6.33</v>
@@ -1882,7 +2080,7 @@
         <v>115042.74</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1923,8 +2121,23 @@
       <c r="W13">
         <v>0.42</v>
       </c>
+      <c r="X13">
+        <v>-1.93</v>
+      </c>
+      <c r="Y13">
+        <v>19.78</v>
+      </c>
+      <c r="Z13">
+        <v>5.16</v>
+      </c>
       <c r="AC13" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1932,22 +2145,25 @@
       <c r="AG13">
         <v>0.872173547744751</v>
       </c>
-      <c r="AH13" t="s">
-        <v>151</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300339</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.68</v>
@@ -1965,7 +2181,7 @@
         <v>245207.91</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2006,8 +2222,23 @@
       <c r="W14">
         <v>-0.17</v>
       </c>
+      <c r="X14">
+        <v>4.24</v>
+      </c>
+      <c r="Y14">
+        <v>72.89</v>
+      </c>
+      <c r="Z14">
+        <v>9.48</v>
+      </c>
       <c r="AC14" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2015,22 +2246,25 @@
       <c r="AG14">
         <v>-1.266488313674927</v>
       </c>
-      <c r="AH14" t="s">
-        <v>151</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300409</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.98</v>
@@ -2048,7 +2282,7 @@
         <v>53659.58</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2089,8 +2323,23 @@
       <c r="W15">
         <v>-0.12</v>
       </c>
+      <c r="X15">
+        <v>-3.49</v>
+      </c>
+      <c r="Y15">
+        <v>22.79</v>
+      </c>
+      <c r="Z15">
+        <v>2.38</v>
+      </c>
       <c r="AC15" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2098,22 +2347,25 @@
       <c r="AG15">
         <v>2.943483114242554</v>
       </c>
-      <c r="AH15" t="s">
-        <v>151</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300491</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>9.1</v>
@@ -2131,7 +2383,7 @@
         <v>41535.86</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2172,8 +2424,23 @@
       <c r="W16">
         <v>0.41</v>
       </c>
+      <c r="X16">
+        <v>1.67</v>
+      </c>
+      <c r="Y16">
+        <v>30.84</v>
+      </c>
+      <c r="Z16">
+        <v>9.949999999999999</v>
+      </c>
       <c r="AC16" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2181,22 +2448,25 @@
       <c r="AG16">
         <v>2.353393316268921</v>
       </c>
-      <c r="AH16" t="s">
-        <v>151</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300499</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1.37</v>
@@ -2214,7 +2484,7 @@
         <v>85675.95</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2255,8 +2525,23 @@
       <c r="W17">
         <v>-0.75</v>
       </c>
+      <c r="X17">
+        <v>-4.25</v>
+      </c>
+      <c r="Y17">
+        <v>34.3</v>
+      </c>
+      <c r="Z17">
+        <v>5.21</v>
+      </c>
       <c r="AC17" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2264,22 +2549,25 @@
       <c r="AG17">
         <v>2.007876396179199</v>
       </c>
-      <c r="AH17" t="s">
-        <v>151</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300547</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-0.22</v>
@@ -2297,7 +2585,7 @@
         <v>36954.89</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2338,8 +2626,23 @@
       <c r="W18">
         <v>-0.13</v>
       </c>
+      <c r="X18">
+        <v>-3.5</v>
+      </c>
+      <c r="Y18">
+        <v>52.46</v>
+      </c>
+      <c r="Z18">
+        <v>5.47</v>
+      </c>
       <c r="AC18" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2347,22 +2650,25 @@
       <c r="AG18">
         <v>4.646347522735596</v>
       </c>
-      <c r="AH18" t="s">
-        <v>151</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300548</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>2.97</v>
@@ -2380,7 +2686,7 @@
         <v>79269.2</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19">
         <v>30</v>
@@ -2421,8 +2727,23 @@
       <c r="W19">
         <v>0.15</v>
       </c>
+      <c r="X19">
+        <v>2.39</v>
+      </c>
+      <c r="Y19">
+        <v>124.9</v>
+      </c>
+      <c r="Z19">
+        <v>19.19</v>
+      </c>
       <c r="AC19" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2430,22 +2751,25 @@
       <c r="AG19">
         <v>10.54695606231689</v>
       </c>
-      <c r="AH19" t="s">
-        <v>152</v>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300598</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>7.78</v>
@@ -2463,7 +2787,7 @@
         <v>107961.34</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2504,8 +2828,23 @@
       <c r="W20">
         <v>0.22</v>
       </c>
+      <c r="X20">
+        <v>1.09</v>
+      </c>
+      <c r="Y20">
+        <v>62.44</v>
+      </c>
+      <c r="Z20">
+        <v>-2.39</v>
+      </c>
       <c r="AC20" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2513,22 +2852,25 @@
       <c r="AG20">
         <v>2.659321308135986</v>
       </c>
-      <c r="AH20" t="s">
-        <v>151</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300620</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.78</v>
@@ -2546,7 +2888,7 @@
         <v>89372.25</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2587,8 +2929,23 @@
       <c r="W21">
         <v>0.1</v>
       </c>
+      <c r="X21">
+        <v>-3.52</v>
+      </c>
+      <c r="Y21">
+        <v>93.88</v>
+      </c>
+      <c r="Z21">
+        <v>2.84</v>
+      </c>
       <c r="AC21" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2596,22 +2953,25 @@
       <c r="AG21">
         <v>2.938789367675781</v>
       </c>
-      <c r="AH21" t="s">
-        <v>151</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300631</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.12</v>
@@ -2629,7 +2989,7 @@
         <v>29717.02</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2670,8 +3030,23 @@
       <c r="W22">
         <v>0.59</v>
       </c>
+      <c r="X22">
+        <v>-4.42</v>
+      </c>
+      <c r="Y22">
+        <v>36.29</v>
+      </c>
+      <c r="Z22">
+        <v>-0.33</v>
+      </c>
       <c r="AC22" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2679,22 +3054,25 @@
       <c r="AG22">
         <v>0.8620231151580811</v>
       </c>
-      <c r="AH22" t="s">
-        <v>151</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300637</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.54</v>
@@ -2712,7 +3090,7 @@
         <v>14330.63</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -2753,8 +3131,23 @@
       <c r="W23">
         <v>-0.17</v>
       </c>
+      <c r="X23">
+        <v>-5.61</v>
+      </c>
+      <c r="Y23">
+        <v>15.58</v>
+      </c>
+      <c r="Z23">
+        <v>-2.62</v>
+      </c>
       <c r="AC23" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2762,22 +3155,25 @@
       <c r="AG23">
         <v>4.304889678955078</v>
       </c>
-      <c r="AH23" t="s">
-        <v>151</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300642</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.89</v>
@@ -2795,7 +3191,7 @@
         <v>14779.8</v>
       </c>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2836,8 +3232,23 @@
       <c r="W24">
         <v>0.31</v>
       </c>
+      <c r="X24">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>32.8</v>
+      </c>
+      <c r="Z24">
+        <v>23.96</v>
+      </c>
       <c r="AC24" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2845,22 +3256,25 @@
       <c r="AG24">
         <v>6.072592735290527</v>
       </c>
-      <c r="AH24" t="s">
-        <v>151</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300686</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-2.4</v>
@@ -2878,7 +3292,7 @@
         <v>17089.75</v>
       </c>
       <c r="J25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2919,8 +3333,23 @@
       <c r="W25">
         <v>-0.15</v>
       </c>
+      <c r="X25">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>14.45</v>
+      </c>
+      <c r="Z25">
+        <v>10.98</v>
+      </c>
       <c r="AC25" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2928,22 +3357,25 @@
       <c r="AG25">
         <v>10.3905086517334</v>
       </c>
-      <c r="AH25" t="s">
-        <v>151</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300701</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.72</v>
@@ -2961,7 +3393,7 @@
         <v>12530.02</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3002,8 +3434,23 @@
       <c r="W26">
         <v>-0.24</v>
       </c>
+      <c r="X26">
+        <v>1.18</v>
+      </c>
+      <c r="Y26">
+        <v>13.48</v>
+      </c>
+      <c r="Z26">
+        <v>8.19</v>
+      </c>
       <c r="AC26" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3011,22 +3458,25 @@
       <c r="AG26">
         <v>10.69976902008057</v>
       </c>
-      <c r="AH26" t="s">
-        <v>151</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300724</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.6</v>
@@ -3044,7 +3494,7 @@
         <v>71435.37</v>
       </c>
       <c r="J27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3085,8 +3535,23 @@
       <c r="W27">
         <v>-0.05</v>
       </c>
+      <c r="X27">
+        <v>3.22</v>
+      </c>
+      <c r="Y27">
+        <v>89.98</v>
+      </c>
+      <c r="Z27">
+        <v>14.46</v>
+      </c>
       <c r="AC27" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3094,22 +3559,25 @@
       <c r="AG27">
         <v>3.152327537536621</v>
       </c>
-      <c r="AH27" t="s">
-        <v>151</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300730</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.84</v>
@@ -3127,7 +3595,7 @@
         <v>58281.17</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28">
         <v>6</v>
@@ -3168,8 +3636,23 @@
       <c r="W28">
         <v>-0.64</v>
       </c>
+      <c r="X28">
+        <v>-0.67</v>
+      </c>
+      <c r="Y28">
+        <v>22.87</v>
+      </c>
+      <c r="Z28">
+        <v>0.26</v>
+      </c>
       <c r="AC28" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3177,22 +3660,25 @@
       <c r="AG28">
         <v>5.942995071411133</v>
       </c>
-      <c r="AH28" t="s">
-        <v>151</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300740</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>4.34</v>
@@ -3210,7 +3696,7 @@
         <v>28285.71</v>
       </c>
       <c r="J29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3251,8 +3737,23 @@
       <c r="W29">
         <v>0.11</v>
       </c>
+      <c r="X29">
+        <v>10.34</v>
+      </c>
+      <c r="Y29">
+        <v>24.88</v>
+      </c>
+      <c r="Z29">
+        <v>16.21</v>
+      </c>
       <c r="AC29" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3260,22 +3761,25 @@
       <c r="AG29">
         <v>1.815367221832275</v>
       </c>
-      <c r="AH29" t="s">
-        <v>151</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300748</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>15.15</v>
@@ -3293,7 +3797,7 @@
         <v>194997.36</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30">
         <v>32</v>
@@ -3334,8 +3838,23 @@
       <c r="W30">
         <v>0.5</v>
       </c>
+      <c r="X30">
+        <v>2.86</v>
+      </c>
+      <c r="Y30">
+        <v>39.48</v>
+      </c>
+      <c r="Z30">
+        <v>13.16</v>
+      </c>
       <c r="AC30" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3343,22 +3862,25 @@
       <c r="AG30">
         <v>-21.68459701538086</v>
       </c>
-      <c r="AH30" t="s">
-        <v>151</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300752</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.66</v>
@@ -3376,7 +3898,7 @@
         <v>23833.83</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3417,8 +3939,23 @@
       <c r="W31">
         <v>1.11</v>
       </c>
+      <c r="X31">
+        <v>-2.43</v>
+      </c>
+      <c r="Y31">
+        <v>27.76</v>
+      </c>
+      <c r="Z31">
+        <v>1.98</v>
+      </c>
       <c r="AC31" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3426,22 +3963,25 @@
       <c r="AG31">
         <v>4.499814033508301</v>
       </c>
-      <c r="AH31" t="s">
-        <v>151</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300767</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.43</v>
@@ -3459,7 +3999,7 @@
         <v>56250.3</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3500,8 +4040,23 @@
       <c r="W32">
         <v>-0.11</v>
       </c>
+      <c r="X32">
+        <v>-0.4</v>
+      </c>
+      <c r="Y32">
+        <v>26.34</v>
+      </c>
+      <c r="Z32">
+        <v>3.5</v>
+      </c>
       <c r="AC32" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3509,22 +4064,25 @@
       <c r="AG32">
         <v>2.595560789108276</v>
       </c>
-      <c r="AH32" t="s">
-        <v>151</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300803</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.5</v>
@@ -3542,7 +4100,7 @@
         <v>400738.87</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -3583,8 +4141,23 @@
       <c r="W33">
         <v>-0.01</v>
       </c>
+      <c r="X33">
+        <v>8.43</v>
+      </c>
+      <c r="Y33">
+        <v>158.58</v>
+      </c>
+      <c r="Z33">
+        <v>10.55</v>
+      </c>
       <c r="AC33" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3592,22 +4165,25 @@
       <c r="AG33">
         <v>2.423489332199097</v>
       </c>
-      <c r="AH33" t="s">
-        <v>151</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300806</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-3.88</v>
@@ -3625,7 +4201,7 @@
         <v>32094.45</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -3666,8 +4242,23 @@
       <c r="W34">
         <v>-0.67</v>
       </c>
+      <c r="X34">
+        <v>1.89</v>
+      </c>
+      <c r="Y34">
+        <v>26.87</v>
+      </c>
+      <c r="Z34">
+        <v>9.67</v>
+      </c>
       <c r="AC34" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3675,22 +4266,25 @@
       <c r="AG34">
         <v>1.847956776618958</v>
       </c>
-      <c r="AH34" t="s">
-        <v>151</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300810</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.49</v>
@@ -3708,7 +4302,7 @@
         <v>22737.59</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3749,8 +4343,23 @@
       <c r="W35">
         <v>-0.29</v>
       </c>
+      <c r="X35">
+        <v>-2.31</v>
+      </c>
+      <c r="Y35">
+        <v>54.98</v>
+      </c>
+      <c r="Z35">
+        <v>-0.76</v>
+      </c>
       <c r="AC35" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3758,22 +4367,25 @@
       <c r="AG35">
         <v>-6.667738914489746</v>
       </c>
-      <c r="AH35" t="s">
-        <v>151</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300814</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.05</v>
@@ -3791,7 +4403,7 @@
         <v>24059.8</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3832,8 +4444,23 @@
       <c r="W36">
         <v>0.24</v>
       </c>
+      <c r="X36">
+        <v>-2.69</v>
+      </c>
+      <c r="Y36">
+        <v>47.42</v>
+      </c>
+      <c r="Z36">
+        <v>2.4</v>
+      </c>
       <c r="AC36" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3841,22 +4468,25 @@
       <c r="AG36">
         <v>4.194721698760986</v>
       </c>
-      <c r="AH36" t="s">
-        <v>151</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300843</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.8</v>
@@ -3874,7 +4504,7 @@
         <v>41161.23</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K37">
         <v>7</v>
@@ -3915,8 +4545,23 @@
       <c r="W37">
         <v>-0.34</v>
       </c>
+      <c r="X37">
+        <v>-3.08</v>
+      </c>
+      <c r="Y37">
+        <v>55.98</v>
+      </c>
+      <c r="Z37">
+        <v>2.77</v>
+      </c>
       <c r="AC37" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3924,22 +4569,25 @@
       <c r="AG37">
         <v>-0.1886979639530182</v>
       </c>
-      <c r="AH37" t="s">
-        <v>151</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300870</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-5.09</v>
@@ -3957,7 +4605,7 @@
         <v>71577.03999999999</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -3998,8 +4646,23 @@
       <c r="W38">
         <v>-0.19</v>
       </c>
+      <c r="X38">
+        <v>-5.35</v>
+      </c>
+      <c r="Y38">
+        <v>269.6</v>
+      </c>
+      <c r="Z38">
+        <v>5.7</v>
+      </c>
       <c r="AC38" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4007,22 +4670,25 @@
       <c r="AG38">
         <v>2.754850387573242</v>
       </c>
-      <c r="AH38" t="s">
-        <v>151</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300893</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-2.72</v>
@@ -4040,7 +4706,7 @@
         <v>10453.43</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K39">
         <v>3</v>
@@ -4081,8 +4747,23 @@
       <c r="W39">
         <v>-0.26</v>
       </c>
+      <c r="X39">
+        <v>1.62</v>
+      </c>
+      <c r="Y39">
+        <v>32.58</v>
+      </c>
+      <c r="Z39">
+        <v>1.27</v>
+      </c>
       <c r="AC39" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4090,22 +4771,25 @@
       <c r="AG39">
         <v>-2.780941247940063</v>
       </c>
-      <c r="AH39" t="s">
-        <v>151</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300913</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.28</v>
@@ -4123,7 +4807,7 @@
         <v>38483.91</v>
       </c>
       <c r="J40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4164,8 +4848,23 @@
       <c r="W40">
         <v>-0.03</v>
       </c>
+      <c r="X40">
+        <v>-3.48</v>
+      </c>
+      <c r="Y40">
+        <v>61.41</v>
+      </c>
+      <c r="Z40">
+        <v>2.37</v>
+      </c>
       <c r="AC40" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4173,22 +4872,25 @@
       <c r="AG40">
         <v>3.662288427352905</v>
       </c>
-      <c r="AH40" t="s">
-        <v>151</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300991</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>18.89</v>
@@ -4206,7 +4908,7 @@
         <v>50075.87</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4247,8 +4949,23 @@
       <c r="W41">
         <v>1.48</v>
       </c>
+      <c r="X41">
+        <v>-3</v>
+      </c>
+      <c r="Y41">
+        <v>44.99</v>
+      </c>
+      <c r="Z41">
+        <v>-0.42</v>
+      </c>
       <c r="AC41" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4256,22 +4973,25 @@
       <c r="AG41">
         <v>2.078925848007202</v>
       </c>
-      <c r="AH41" t="s">
-        <v>151</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301018</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-0.87</v>
@@ -4289,7 +5009,7 @@
         <v>36141.96</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4330,8 +5050,23 @@
       <c r="W42">
         <v>0.06</v>
       </c>
+      <c r="X42">
+        <v>-4</v>
+      </c>
+      <c r="Y42">
+        <v>72.5</v>
+      </c>
+      <c r="Z42">
+        <v>5.73</v>
+      </c>
       <c r="AC42" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4339,22 +5074,25 @@
       <c r="AG42">
         <v>6.908094882965088</v>
       </c>
-      <c r="AH42" t="s">
-        <v>151</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301041</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>2.93</v>
@@ -4372,7 +5110,7 @@
         <v>18649.93</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4413,8 +5151,23 @@
       <c r="W43">
         <v>0.41</v>
       </c>
+      <c r="X43">
+        <v>-3.64</v>
+      </c>
+      <c r="Y43">
+        <v>32.99</v>
+      </c>
+      <c r="Z43">
+        <v>1.1</v>
+      </c>
       <c r="AC43" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4422,22 +5175,25 @@
       <c r="AG43">
         <v>2.950337648391724</v>
       </c>
-      <c r="AH43" t="s">
-        <v>151</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301052</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.52</v>
@@ -4455,7 +5211,7 @@
         <v>18807.81</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4496,8 +5252,23 @@
       <c r="W44">
         <v>-0.1</v>
       </c>
+      <c r="X44">
+        <v>-3.1</v>
+      </c>
+      <c r="Y44">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="Z44">
+        <v>4.47</v>
+      </c>
       <c r="AC44" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4505,22 +5276,25 @@
       <c r="AG44">
         <v>3.575589895248413</v>
       </c>
-      <c r="AH44" t="s">
-        <v>151</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301095</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>1.52</v>
@@ -4538,7 +5312,7 @@
         <v>39485.22</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K45">
         <v>19</v>
@@ -4579,8 +5353,23 @@
       <c r="W45">
         <v>0.13</v>
       </c>
+      <c r="X45">
+        <v>-1.21</v>
+      </c>
+      <c r="Y45">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>-2.65</v>
+      </c>
       <c r="AC45" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4588,22 +5377,25 @@
       <c r="AG45">
         <v>1.257108449935913</v>
       </c>
-      <c r="AH45" t="s">
-        <v>151</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301128</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>8.01</v>
@@ -4621,7 +5413,7 @@
         <v>64311.18</v>
       </c>
       <c r="J46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -4662,8 +5454,23 @@
       <c r="W46">
         <v>0.48</v>
       </c>
+      <c r="X46">
+        <v>-11.93</v>
+      </c>
+      <c r="Y46">
+        <v>113.99</v>
+      </c>
+      <c r="Z46">
+        <v>7.34</v>
+      </c>
       <c r="AC46" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4671,22 +5478,25 @@
       <c r="AG46">
         <v>-18.86284446716309</v>
       </c>
-      <c r="AH46" t="s">
-        <v>151</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301165</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.95</v>
@@ -4704,7 +5514,7 @@
         <v>81600.99000000001</v>
       </c>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -4745,8 +5555,23 @@
       <c r="W47">
         <v>-0.27</v>
       </c>
+      <c r="X47">
+        <v>-2.36</v>
+      </c>
+      <c r="Y47">
+        <v>92.12</v>
+      </c>
+      <c r="Z47">
+        <v>1.22</v>
+      </c>
       <c r="AC47" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4754,22 +5579,25 @@
       <c r="AG47">
         <v>0.93329918384552</v>
       </c>
-      <c r="AH47" t="s">
-        <v>151</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301205</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>2.95</v>
@@ -4787,7 +5615,7 @@
         <v>29211.27</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -4828,8 +5656,23 @@
       <c r="W48">
         <v>0.36</v>
       </c>
+      <c r="X48">
+        <v>4.48</v>
+      </c>
+      <c r="Y48">
+        <v>121.85</v>
+      </c>
+      <c r="Z48">
+        <v>9.17</v>
+      </c>
       <c r="AC48" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4837,22 +5680,25 @@
       <c r="AG48">
         <v>3.747763633728027</v>
       </c>
-      <c r="AH48" t="s">
-        <v>151</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301217</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -4870,7 +5716,7 @@
         <v>69964.49000000001</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K49">
         <v>36</v>
@@ -4911,8 +5757,23 @@
       <c r="W49">
         <v>-0.06</v>
       </c>
+      <c r="X49">
+        <v>-4.92</v>
+      </c>
+      <c r="Y49">
+        <v>35.6</v>
+      </c>
+      <c r="Z49">
+        <v>4.98</v>
+      </c>
       <c r="AC49" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4920,22 +5781,25 @@
       <c r="AG49">
         <v>5.245495796203613</v>
       </c>
-      <c r="AH49" t="s">
-        <v>151</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301219</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.68</v>
@@ -4953,7 +5817,7 @@
         <v>25835.49</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -4994,8 +5858,23 @@
       <c r="W50">
         <v>0.09</v>
       </c>
+      <c r="X50">
+        <v>-3.52</v>
+      </c>
+      <c r="Y50">
+        <v>68.88</v>
+      </c>
+      <c r="Z50">
+        <v>0.44</v>
+      </c>
       <c r="AC50" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5003,22 +5882,25 @@
       <c r="AG50">
         <v>11.60395336151123</v>
       </c>
-      <c r="AH50" t="s">
-        <v>151</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301377</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>9.81</v>
@@ -5036,7 +5918,7 @@
         <v>39031.75</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K51">
         <v>11</v>
@@ -5077,8 +5959,23 @@
       <c r="W51">
         <v>0.14</v>
       </c>
+      <c r="X51">
+        <v>2.74</v>
+      </c>
+      <c r="Y51">
+        <v>77.09</v>
+      </c>
+      <c r="Z51">
+        <v>3.14</v>
+      </c>
       <c r="AC51" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5086,22 +5983,25 @@
       <c r="AG51">
         <v>1.991390943527222</v>
       </c>
-      <c r="AH51" t="s">
-        <v>151</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301392</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-1.69</v>
@@ -5119,7 +6019,7 @@
         <v>24387.05</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5160,8 +6060,23 @@
       <c r="W52">
         <v>-0.12</v>
       </c>
+      <c r="X52">
+        <v>-3.94</v>
+      </c>
+      <c r="Y52">
+        <v>185.99</v>
+      </c>
+      <c r="Z52">
+        <v>-0.53</v>
+      </c>
       <c r="AC52" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5169,22 +6084,25 @@
       <c r="AG52">
         <v>2.364586591720581</v>
       </c>
-      <c r="AH52" t="s">
-        <v>151</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301413</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>8.16</v>
@@ -5202,7 +6120,7 @@
         <v>29516.76</v>
       </c>
       <c r="J53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5243,8 +6161,23 @@
       <c r="W53">
         <v>0.27</v>
       </c>
+      <c r="X53">
+        <v>-3.3</v>
+      </c>
+      <c r="Y53">
+        <v>126</v>
+      </c>
+      <c r="Z53">
+        <v>2.41</v>
+      </c>
       <c r="AC53" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5252,22 +6185,25 @@
       <c r="AG53">
         <v>3.066008329391479</v>
       </c>
-      <c r="AH53" t="s">
-        <v>151</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301489</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-3.35</v>
@@ -5285,7 +6221,7 @@
         <v>36367.68</v>
       </c>
       <c r="J54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K54">
         <v>18</v>
@@ -5326,8 +6262,23 @@
       <c r="W54">
         <v>0.22</v>
       </c>
+      <c r="X54">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>185</v>
+      </c>
+      <c r="Z54">
+        <v>-0.86</v>
+      </c>
       <c r="AC54" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5335,22 +6286,25 @@
       <c r="AG54">
         <v>4.832254886627197</v>
       </c>
-      <c r="AH54" t="s">
-        <v>151</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301526</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>5.56</v>
@@ -5368,7 +6322,7 @@
         <v>55159.5</v>
       </c>
       <c r="J55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K55">
         <v>13</v>
@@ -5409,8 +6363,23 @@
       <c r="W55">
         <v>0.2</v>
       </c>
+      <c r="X55">
+        <v>2.54</v>
+      </c>
+      <c r="Y55">
+        <v>7.56</v>
+      </c>
+      <c r="Z55">
+        <v>10.53</v>
+      </c>
       <c r="AC55" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5418,22 +6387,25 @@
       <c r="AG55">
         <v>2.326485633850098</v>
       </c>
-      <c r="AH55" t="s">
-        <v>151</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301617</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>7.02</v>
@@ -5451,7 +6423,7 @@
         <v>29266.68</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5492,8 +6464,23 @@
       <c r="W56">
         <v>0.25</v>
       </c>
+      <c r="X56">
+        <v>1.37</v>
+      </c>
+      <c r="Y56">
+        <v>56</v>
+      </c>
+      <c r="Z56">
+        <v>7.44</v>
+      </c>
       <c r="AC56" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5501,22 +6488,25 @@
       <c r="AG56">
         <v>0.1629141569137573</v>
       </c>
-      <c r="AH56" t="s">
-        <v>151</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688035</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.2</v>
@@ -5534,7 +6524,7 @@
         <v>13708.19</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -5575,8 +6565,23 @@
       <c r="W57">
         <v>-0.04</v>
       </c>
+      <c r="X57">
+        <v>-3.17</v>
+      </c>
+      <c r="Y57">
+        <v>57.5</v>
+      </c>
+      <c r="Z57">
+        <v>0.91</v>
+      </c>
       <c r="AC57" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5584,22 +6589,25 @@
       <c r="AG57">
         <v>1.162948727607727</v>
       </c>
-      <c r="AH57" t="s">
-        <v>151</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688048</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>2.13</v>
@@ -5617,7 +6625,7 @@
         <v>37866.86</v>
       </c>
       <c r="J58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K58">
         <v>16</v>
@@ -5658,8 +6666,23 @@
       <c r="W58">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X58">
+        <v>-7.29</v>
+      </c>
+      <c r="Y58">
+        <v>80.65000000000001</v>
+      </c>
+      <c r="Z58">
+        <v>-0.48</v>
+      </c>
       <c r="AC58" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5667,22 +6690,25 @@
       <c r="AG58">
         <v>1.697192192077637</v>
       </c>
-      <c r="AH58" t="s">
-        <v>151</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688066</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>11.03</v>
@@ -5700,7 +6726,7 @@
         <v>43355.2</v>
       </c>
       <c r="J59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5741,8 +6767,23 @@
       <c r="W59">
         <v>0.75</v>
       </c>
+      <c r="X59">
+        <v>14.45</v>
+      </c>
+      <c r="Y59">
+        <v>37.99</v>
+      </c>
+      <c r="Z59">
+        <v>28.39</v>
+      </c>
       <c r="AC59" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5750,22 +6791,25 @@
       <c r="AG59">
         <v>-1.870338201522827</v>
       </c>
-      <c r="AH59" t="s">
-        <v>151</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688098</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>5.97</v>
@@ -5783,7 +6827,7 @@
         <v>17061.87</v>
       </c>
       <c r="J60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5824,8 +6868,23 @@
       <c r="W60">
         <v>0.03</v>
       </c>
+      <c r="X60">
+        <v>-8.41</v>
+      </c>
+      <c r="Y60">
+        <v>14.57</v>
+      </c>
+      <c r="Z60">
+        <v>7.93</v>
+      </c>
       <c r="AC60" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5833,22 +6892,25 @@
       <c r="AG60">
         <v>3.154427051544189</v>
       </c>
-      <c r="AH60" t="s">
-        <v>151</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688110</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>8.619999999999999</v>
@@ -5866,7 +6928,7 @@
         <v>203336.14</v>
       </c>
       <c r="J61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5907,8 +6969,23 @@
       <c r="W61">
         <v>0.08</v>
       </c>
+      <c r="X61">
+        <v>1.03</v>
+      </c>
+      <c r="Y61">
+        <v>104.45</v>
+      </c>
+      <c r="Z61">
+        <v>4.69</v>
+      </c>
       <c r="AC61" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5916,22 +6993,25 @@
       <c r="AG61">
         <v>3.016042232513428</v>
       </c>
-      <c r="AH61" t="s">
-        <v>151</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688146</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>3.84</v>
@@ -5949,7 +7029,7 @@
         <v>25837.17</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -5990,8 +7070,23 @@
       <c r="W62">
         <v>0.06</v>
       </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>43.19</v>
+      </c>
+      <c r="Z62">
+        <v>0.35</v>
+      </c>
       <c r="AC62" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5999,22 +7094,25 @@
       <c r="AG62">
         <v>2.534494638442993</v>
       </c>
-      <c r="AH62" t="s">
-        <v>151</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688167</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>0.25</v>
@@ -6032,7 +7130,7 @@
         <v>38709.78</v>
       </c>
       <c r="J63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K63">
         <v>14</v>
@@ -6073,8 +7171,23 @@
       <c r="W63">
         <v>0.21</v>
       </c>
+      <c r="X63">
+        <v>-4.96</v>
+      </c>
+      <c r="Y63">
+        <v>138.87</v>
+      </c>
+      <c r="Z63">
+        <v>6.56</v>
+      </c>
       <c r="AC63" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6082,22 +7195,25 @@
       <c r="AG63">
         <v>2.926289558410645</v>
       </c>
-      <c r="AH63" t="s">
-        <v>151</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688195</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>3.39</v>
@@ -6115,7 +7231,7 @@
         <v>34623.55</v>
       </c>
       <c r="J64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6156,8 +7272,23 @@
       <c r="W64">
         <v>0.54</v>
       </c>
+      <c r="X64">
+        <v>-4.22</v>
+      </c>
+      <c r="Y64">
+        <v>63.93</v>
+      </c>
+      <c r="Z64">
+        <v>-0.54</v>
+      </c>
       <c r="AC64" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6165,22 +7296,25 @@
       <c r="AG64">
         <v>1.64649772644043</v>
       </c>
-      <c r="AH64" t="s">
-        <v>151</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688205</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -6198,7 +7332,7 @@
         <v>27924.42</v>
       </c>
       <c r="J65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -6239,8 +7373,23 @@
       <c r="W65">
         <v>0.3</v>
       </c>
+      <c r="X65">
+        <v>-4.54</v>
+      </c>
+      <c r="Y65">
+        <v>103.5</v>
+      </c>
+      <c r="Z65">
+        <v>-4.63</v>
+      </c>
       <c r="AC65" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6248,22 +7397,25 @@
       <c r="AG65">
         <v>4.998443603515625</v>
       </c>
-      <c r="AH65" t="s">
-        <v>152</v>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688313</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>5.61</v>
@@ -6281,7 +7433,7 @@
         <v>105850.27</v>
       </c>
       <c r="J66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -6322,8 +7474,23 @@
       <c r="W66">
         <v>0.26</v>
       </c>
+      <c r="X66">
+        <v>-1.34</v>
+      </c>
+      <c r="Y66">
+        <v>74.3</v>
+      </c>
+      <c r="Z66">
+        <v>8.640000000000001</v>
+      </c>
       <c r="AC66" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6331,22 +7498,25 @@
       <c r="AG66">
         <v>1.039963841438293</v>
       </c>
-      <c r="AH66" t="s">
-        <v>151</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688372</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-1.12</v>
@@ -6364,7 +7534,7 @@
         <v>46167.52</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6405,8 +7575,23 @@
       <c r="W67">
         <v>-0.42</v>
       </c>
+      <c r="X67">
+        <v>0.25</v>
+      </c>
+      <c r="Y67">
+        <v>80.86</v>
+      </c>
+      <c r="Z67">
+        <v>1.43</v>
+      </c>
       <c r="AC67" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6414,22 +7599,25 @@
       <c r="AG67">
         <v>3.264248371124268</v>
       </c>
-      <c r="AH67" t="s">
-        <v>151</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688489</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.06</v>
@@ -6447,7 +7635,7 @@
         <v>19993.35</v>
       </c>
       <c r="J68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6488,8 +7676,23 @@
       <c r="W68">
         <v>-0.76</v>
       </c>
+      <c r="X68">
+        <v>-6</v>
+      </c>
+      <c r="Y68">
+        <v>56.18</v>
+      </c>
+      <c r="Z68">
+        <v>4.64</v>
+      </c>
       <c r="AC68" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6497,22 +7700,25 @@
       <c r="AG68">
         <v>24.22313499450684</v>
       </c>
-      <c r="AH68" t="s">
-        <v>151</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688502</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-1.37</v>
@@ -6530,7 +7736,7 @@
         <v>21781.72</v>
       </c>
       <c r="J69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K69">
         <v>21</v>
@@ -6571,8 +7777,23 @@
       <c r="W69">
         <v>-0.35</v>
       </c>
+      <c r="X69">
+        <v>-5.33</v>
+      </c>
+      <c r="Y69">
+        <v>446</v>
+      </c>
+      <c r="Z69">
+        <v>3.24</v>
+      </c>
       <c r="AC69" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6580,22 +7801,25 @@
       <c r="AG69">
         <v>-4.062665939331055</v>
       </c>
-      <c r="AH69" t="s">
-        <v>151</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688521</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>8.98</v>
@@ -6613,7 +7837,7 @@
         <v>296319.51</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -6654,8 +7878,23 @@
       <c r="W70">
         <v>0.1</v>
       </c>
+      <c r="X70">
+        <v>-9.33</v>
+      </c>
+      <c r="Y70">
+        <v>149.99</v>
+      </c>
+      <c r="Z70">
+        <v>-8.140000000000001</v>
+      </c>
       <c r="AC70" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6663,22 +7902,25 @@
       <c r="AG70">
         <v>3.22400164604187</v>
       </c>
-      <c r="AH70" t="s">
-        <v>151</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688629</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>3.44</v>
@@ -6696,7 +7938,7 @@
         <v>73215.14</v>
       </c>
       <c r="J71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -6737,8 +7979,23 @@
       <c r="W71">
         <v>0.42</v>
       </c>
+      <c r="X71">
+        <v>2.7</v>
+      </c>
+      <c r="Y71">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>25.33</v>
+      </c>
       <c r="AC71" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6746,22 +8003,25 @@
       <c r="AG71">
         <v>27.47905158996582</v>
       </c>
-      <c r="AH71" t="s">
-        <v>151</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688709</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>0.04</v>
@@ -6779,7 +8039,7 @@
         <v>59916.25</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -6820,8 +8080,23 @@
       <c r="W72">
         <v>-0.45</v>
       </c>
+      <c r="X72">
+        <v>-5.03</v>
+      </c>
+      <c r="Y72">
+        <v>46</v>
+      </c>
+      <c r="Z72">
+        <v>-2.25</v>
+      </c>
       <c r="AC72" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6829,22 +8104,25 @@
       <c r="AG72">
         <v>1.883392572402954</v>
       </c>
-      <c r="AH72" t="s">
-        <v>151</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688716</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>2.48</v>
@@ -6862,7 +8140,7 @@
         <v>18392.43</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K73">
         <v>8</v>
@@ -6903,8 +8181,23 @@
       <c r="W73">
         <v>0.28</v>
       </c>
+      <c r="X73">
+        <v>-6.9</v>
+      </c>
+      <c r="Y73">
+        <v>53.21</v>
+      </c>
+      <c r="Z73">
+        <v>-0.34</v>
+      </c>
       <c r="AC73" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -6912,22 +8205,25 @@
       <c r="AG73">
         <v>1.77081573009491</v>
       </c>
-      <c r="AH73" t="s">
-        <v>151</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688798</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-1.31</v>
@@ -6945,7 +8241,7 @@
         <v>26888.48</v>
       </c>
       <c r="J74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K74">
         <v>4</v>
@@ -6986,8 +8282,23 @@
       <c r="W74">
         <v>-0.19</v>
       </c>
+      <c r="X74">
+        <v>0.06</v>
+      </c>
+      <c r="Y74">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="Z74">
+        <v>5.68</v>
+      </c>
       <c r="AC74" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -6995,8 +8306,11 @@
       <c r="AG74">
         <v>-0.04996085539460182</v>
       </c>
-      <c r="AH74" t="s">
-        <v>151</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
